--- a/example_data/EPA/label_corrected/042750-00303-20160624_2018-12-08_111248.xlsx
+++ b/example_data/EPA/label_corrected/042750-00303-20160624_2018-12-08_111248.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
